--- a/WebApp/WebApp/UploadedFiles/New Microsoft Excel Worksheet.xlsx
+++ b/WebApp/WebApp/UploadedFiles/New Microsoft Excel Worksheet.xlsx
@@ -21,15 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>Nguyen Van B</t>
-  </si>
-  <si>
-    <t>St0003</t>
-  </si>
-  <si>
-    <t>St0006</t>
-  </si>
-  <si>
     <t>NoNO</t>
   </si>
   <si>
@@ -39,13 +30,22 @@
     <t>CP01</t>
   </si>
   <si>
-    <t>nguyenvanb@student.com</t>
-  </si>
-  <si>
-    <t>Nguyen Van F</t>
-  </si>
-  <si>
-    <t>nguyenvf@student.com</t>
+    <t>Nguyen Van DAO</t>
+  </si>
+  <si>
+    <t>Nguyen Van BUI</t>
+  </si>
+  <si>
+    <t>St0020</t>
+  </si>
+  <si>
+    <t>St0021</t>
+  </si>
+  <si>
+    <t>nguyenDAO@student.com</t>
+  </si>
+  <si>
+    <t>nguyenvanBUI@student.com</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,22 +390,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>123456</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1">
-        <v>10101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G1">
         <v>378288209</v>
@@ -413,22 +413,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>654321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>378288209</v>
